--- a/cicada_generator/lib/WHO/antigen/Hib.xlsx
+++ b/cicada_generator/lib/WHO/antigen/Hib.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="3-dose series" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="4-dose series (3p+1)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="41">
   <si>
     <t xml:space="preserve">Series Name</t>
   </si>
@@ -86,9 +87,6 @@
     <t xml:space="preserve">Hib (PRP-T) (48)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib (HbOC) (47)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hib, unspecified (17)</t>
   </si>
   <si>
@@ -117,6 +115,27 @@
   </si>
   <si>
     <t xml:space="preserve">14 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO Hib 4-dose series (3p+1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dose 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 months</t>
   </si>
 </sst>
 </file>
@@ -473,12 +492,6 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -561,119 +574,104 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -681,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -695,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -709,7 +707,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
@@ -720,119 +718,104 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -840,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>17</v>
@@ -854,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
@@ -868,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>17</v>
@@ -879,23 +862,637 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>18</v>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
